--- a/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8DB072-FE7D-4A5D-8115-BE3167F719CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37330D9-8778-4885-8B1B-DF6B943FFF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>mngr83460</t>
-  </si>
-  <si>
-    <t>qAbUzyj</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -34,22 +28,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr112909</t>
+    <t>ryseqAm</t>
   </si>
   <si>
-    <t>tytUreg</t>
-  </si>
-  <si>
-    <t>mngr164225</t>
-  </si>
-  <si>
-    <t>jahetAp</t>
-  </si>
-  <si>
-    <t>mngr595932</t>
-  </si>
-  <si>
-    <t>vujAhUp</t>
+    <t>mngr601086</t>
   </si>
 </sst>
 </file>
@@ -442,7 +424,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,50 +435,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/inetbanking/testData/LoginData.xlsx
+++ b/src/test/java/com/inetbanking/testData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37330D9-8778-4885-8B1B-DF6B943FFF47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DCDB4F-223D-4C2F-9FB0-7CBC43A919B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>ryseqAm</t>
+    <t>mngr605382</t>
   </si>
   <si>
-    <t>mngr601086</t>
+    <t>tejymYz</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,42 +443,42 @@
     </row>
     <row r="2" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
